--- a/assets/world_bank_reconstruction.xlsx
+++ b/assets/world_bank_reconstruction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiny.cucumber\projects\ukraine_data\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiny.cucumber\projects\ukrainedb\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D96E8-BFCF-4A4E-BF4A-34E262C6741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A398CA-CCDB-491A-8CC1-E740A7267185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reg_damage" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="78">
   <si>
     <t>Sector</t>
   </si>
@@ -77,131 +77,47 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>39.2</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>0. 5</t>
-  </si>
-  <si>
     <t>Health</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
     <t>Social protection and livelihoods</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>Culture and tourism</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>19.3</t>
-  </si>
-  <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
     <t>Irrigation and water resources</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>Commerce and industry</t>
   </si>
   <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>47.5</t>
-  </si>
-  <si>
     <t>Finance and banking</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
     <t>Extractives</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
-    <t>29.9</t>
-  </si>
-  <si>
-    <t>26.1</t>
-  </si>
-  <si>
     <t>Telecom and digital</t>
   </si>
   <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
     <t>Water supply and sanitation</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>4.3</t>
   </si>
   <si>
     <t>Environment, natural resource management,
 and forestry</t>
-  </si>
-  <si>
-    <t>2.5</t>
   </si>
   <si>
     <t>Emergency response and civil protection</t>
@@ -389,9 +305,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +322,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -428,24 +350,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="wiiw" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -521,11 +446,11 @@
     <tableColumn id="1" xr3:uid="{7D6E00DD-AEA1-40A2-9A05-F6C182B4731B}" uniqueName="1" name="Sector" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{18D48016-86E6-4D2B-B0ED-48A60CCFAA80}" uniqueName="8" name="Sector Type" queryTableFieldId="8" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{14B531CE-2BFD-4CE5-89F2-1BC730BCDBCF}" uniqueName="2" name="Damage" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{2340C484-5CB3-41A2-BA2D-63E48919C7B0}" uniqueName="3" name="Damage Share" queryTableFieldId="3"/>
+    <tableColumn id="3" xr3:uid="{2340C484-5CB3-41A2-BA2D-63E48919C7B0}" uniqueName="3" name="Damage Share" queryTableFieldId="3" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{8248E376-F6A7-4349-A898-CBE43A03CFB4}" uniqueName="4" name="Losses" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{B045BB85-5CA3-43E0-90CC-7237AED2BA6B}" uniqueName="5" name="Share Losses" queryTableFieldId="5"/>
+    <tableColumn id="5" xr3:uid="{B045BB85-5CA3-43E0-90CC-7237AED2BA6B}" uniqueName="5" name="Share Losses" queryTableFieldId="5" dataCellStyle="Percent"/>
     <tableColumn id="6" xr3:uid="{164E07EC-40D5-4427-8A41-D7AB32E28564}" uniqueName="6" name="Needs" queryTableFieldId="6" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{143FCFA3-0D9E-46E2-B775-6BE68A7EBCD1}" uniqueName="7" name="Share Needs" queryTableFieldId="7"/>
+    <tableColumn id="7" xr3:uid="{143FCFA3-0D9E-46E2-B775-6BE68A7EBCD1}" uniqueName="7" name="Share Needs" queryTableFieldId="7" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -844,7 +769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -853,1780 +780,1780 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="4">
-        <v>26.2</v>
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>38.700000000000003</v>
       </c>
       <c r="E2" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" ref="E2:E27" si="0">+SUM(D:D)</f>
+        <v>152.79999999999995</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F26" si="0">+D2/E2</f>
-        <v>0.26902146010884076</v>
+        <f t="shared" ref="F2:F26" si="1">+D2/E2</f>
+        <v>0.25327225130890063</v>
       </c>
       <c r="G2" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H2" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>18.740034911181844</v>
+        <v>0.20337761780104721</v>
       </c>
       <c r="I2" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>2.8110052366772766</v>
+        <v>3.5204842931937187E-2</v>
       </c>
       <c r="J2" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>3.7480069822363689</v>
+        <v>3.596465968586389E-2</v>
       </c>
       <c r="K2" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>5.6220104733545533</v>
+        <v>0.11270615183246079</v>
       </c>
       <c r="L2" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>1.8740034911181844</v>
+        <v>2.2541230366492158E-2</v>
       </c>
       <c r="M2" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>4.6850087277954611</v>
+        <v>0.1192912303664922</v>
       </c>
       <c r="N2" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>1.8740034911181844</v>
+        <v>0.18666164921465975</v>
       </c>
       <c r="O2" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>5.6220104733545533</v>
+        <v>1.190379581151833E-2</v>
       </c>
       <c r="P2" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>1.8740034911181844</v>
+        <v>2.8113219895287971E-2</v>
       </c>
       <c r="Q2" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>2.8110052366772766</v>
+        <v>2.8873036649214673E-2</v>
       </c>
       <c r="R2" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>0</v>
+        <v>0.14208573298429325</v>
       </c>
       <c r="S2" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>19.677036656740938</v>
+        <v>0.1709587696335079</v>
       </c>
       <c r="T2" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>0.93700174555909221</v>
+        <v>2.7100130890052365E-2</v>
       </c>
       <c r="U2" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>1.8740034911181844</v>
+        <v>5.8252617801047126E-3</v>
       </c>
       <c r="V2" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>1.8740034911181844</v>
+        <v>5.8252617801047126E-3</v>
       </c>
       <c r="W2" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>0</v>
+        <v>5.8252617801047126E-3</v>
       </c>
       <c r="X2" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>0</v>
+        <v>1.7729057591623044E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>0</v>
+        <v>8.7632198952879617E-2</v>
       </c>
       <c r="Z2" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F2*$G2</f>
-        <v>19.677036656740938</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.18539528795811525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="4">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>13.5</v>
       </c>
       <c r="E3" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" si="0"/>
-        <v>6.1607967963856668E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.8350785340314167E-2</v>
       </c>
       <c r="G3" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H3" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>4.2916110483622552</v>
+        <v>7.0945680628272279E-2</v>
       </c>
       <c r="I3" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0.64374165725433818</v>
+        <v>1.2280759162303669E-2</v>
       </c>
       <c r="J3" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0.8583222096724511</v>
+        <v>1.2545811518324611E-2</v>
       </c>
       <c r="K3" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>1.2874833145086764</v>
+        <v>3.9316099476439804E-2</v>
       </c>
       <c r="L3" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0.42916110483622555</v>
+        <v>7.863219895287963E-3</v>
       </c>
       <c r="M3" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>1.0729027620905638</v>
+        <v>4.1613219895287976E-2</v>
       </c>
       <c r="N3" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0.42916110483622555</v>
+        <v>6.5114528795811547E-2</v>
       </c>
       <c r="O3" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>1.2874833145086764</v>
+        <v>4.1524869109947661E-3</v>
       </c>
       <c r="P3" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0.42916110483622555</v>
+        <v>9.8069371727748742E-3</v>
       </c>
       <c r="Q3" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0.64374165725433818</v>
+        <v>1.0071989528795814E-2</v>
       </c>
       <c r="R3" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0</v>
+        <v>4.956479057591625E-2</v>
       </c>
       <c r="S3" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>4.506191600780368</v>
+        <v>5.9636780104712059E-2</v>
       </c>
       <c r="T3" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0.21458055241811277</v>
+        <v>9.453534031413616E-3</v>
       </c>
       <c r="U3" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0.42916110483622555</v>
+        <v>2.0320680628272253E-3</v>
       </c>
       <c r="V3" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0.42916110483622555</v>
+        <v>2.0320680628272253E-3</v>
       </c>
       <c r="W3" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0</v>
+        <v>2.0320680628272253E-3</v>
       </c>
       <c r="X3" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0</v>
+        <v>6.1845549738219908E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>0</v>
+        <v>3.0569371727748703E-2</v>
       </c>
       <c r="Z3" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F3*$G3</f>
-        <v>4.506191600780368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>6.4672774869109967E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4">
-        <v>16.7</v>
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>17.8</v>
       </c>
       <c r="E4" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17147551083273438</v>
+        <f t="shared" si="1"/>
+        <v>0.11649214659685868</v>
       </c>
       <c r="G4" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H4" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>11.944984084608274</v>
+        <v>9.3543193717277526E-2</v>
       </c>
       <c r="I4" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>1.7917476126912413</v>
+        <v>1.6192408376963358E-2</v>
       </c>
       <c r="J4" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>2.3889968169216549</v>
+        <v>1.6541884816753932E-2</v>
       </c>
       <c r="K4" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>3.5834952253824826</v>
+        <v>5.1839005235602115E-2</v>
       </c>
       <c r="L4" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>1.1944984084608274</v>
+        <v>1.0367801047120423E-2</v>
       </c>
       <c r="M4" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>2.9862460211520685</v>
+        <v>5.486780104712044E-2</v>
       </c>
       <c r="N4" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>1.1944984084608274</v>
+        <v>8.5854712041884843E-2</v>
       </c>
       <c r="O4" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>3.5834952253824826</v>
+        <v>5.4751308900523581E-3</v>
       </c>
       <c r="P4" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>1.1944984084608274</v>
+        <v>1.2930628272251315E-2</v>
       </c>
       <c r="Q4" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>1.7917476126912413</v>
+        <v>1.328010471204189E-2</v>
       </c>
       <c r="R4" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>0</v>
+        <v>6.5352094240837724E-2</v>
       </c>
       <c r="S4" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>12.542233288838689</v>
+        <v>7.8632198952879609E-2</v>
       </c>
       <c r="T4" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>0.59724920423041372</v>
+        <v>1.2464659685863879E-2</v>
       </c>
       <c r="U4" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>1.1944984084608274</v>
+        <v>2.6793193717277492E-3</v>
       </c>
       <c r="V4" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>1.1944984084608274</v>
+        <v>2.6793193717277492E-3</v>
       </c>
       <c r="W4" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>0</v>
+        <v>2.6793193717277492E-3</v>
       </c>
       <c r="X4" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>0</v>
+        <v>8.1544502617801075E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>0</v>
+        <v>4.0306282722513104E-2</v>
       </c>
       <c r="Z4" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F4*$G4</f>
-        <v>12.542233288838689</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>8.5272251308900537E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.7</v>
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>5.6</v>
       </c>
       <c r="E5" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7991580244378279E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.6649214659685875E-2</v>
       </c>
       <c r="G5" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H5" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>2.6464934798233908</v>
+        <v>2.9429319371727759E-2</v>
       </c>
       <c r="I5" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.39697402197350856</v>
+        <v>5.0942408376963358E-3</v>
       </c>
       <c r="J5" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.52929869596467816</v>
+        <v>5.2041884816753942E-3</v>
       </c>
       <c r="K5" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.79394804394701712</v>
+        <v>1.6308900523560214E-2</v>
       </c>
       <c r="L5" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.26464934798233908</v>
+        <v>3.2617801047120434E-3</v>
       </c>
       <c r="M5" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.6616233699558477</v>
+        <v>1.7261780104712049E-2</v>
       </c>
       <c r="N5" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.26464934798233908</v>
+        <v>2.701047120418849E-2</v>
       </c>
       <c r="O5" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.79394804394701712</v>
+        <v>1.7225130890052361E-3</v>
       </c>
       <c r="P5" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.26464934798233908</v>
+        <v>4.068062827225132E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.39697402197350856</v>
+        <v>4.1780104712041896E-3</v>
       </c>
       <c r="R5" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0</v>
+        <v>2.0560209424083778E-2</v>
       </c>
       <c r="S5" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>2.7788181538145595</v>
+        <v>2.4738219895287964E-2</v>
       </c>
       <c r="T5" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.13232467399116954</v>
+        <v>3.921465968586388E-3</v>
       </c>
       <c r="U5" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.26464934798233908</v>
+        <v>8.4293193717277493E-4</v>
       </c>
       <c r="V5" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0.26464934798233908</v>
+        <v>8.4293193717277493E-4</v>
       </c>
       <c r="W5" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0</v>
+        <v>8.4293193717277493E-4</v>
       </c>
       <c r="X5" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0</v>
+        <v>2.565445026178011E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>0</v>
+        <v>1.2680628272251313E-2</v>
       </c>
       <c r="Z5" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F5*$G5</f>
-        <v>2.7788181538145595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>2.6827225130890059E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.3</v>
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>27.8</v>
       </c>
       <c r="E6" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0803983981928331E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.18193717277486918</v>
       </c>
       <c r="G6" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H6" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>0.21458055241811272</v>
+        <v>0.14609554973821995</v>
       </c>
       <c r="I6" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>3.2187082862716911E-2</v>
+        <v>2.5289267015706815E-2</v>
       </c>
       <c r="J6" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>4.2916110483622545E-2</v>
+        <v>2.5835078534031424E-2</v>
       </c>
       <c r="K6" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>6.4374165725433821E-2</v>
+        <v>8.0962041884816774E-2</v>
       </c>
       <c r="L6" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>2.1458055241811273E-2</v>
+        <v>1.6192408376963358E-2</v>
       </c>
       <c r="M6" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>5.364513810452818E-2</v>
+        <v>8.5692408376963389E-2</v>
       </c>
       <c r="N6" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>2.1458055241811273E-2</v>
+        <v>0.13408769633507858</v>
       </c>
       <c r="O6" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>6.4374165725433821E-2</v>
+        <v>8.5510471204188511E-3</v>
       </c>
       <c r="P6" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>2.1458055241811273E-2</v>
+        <v>2.0195026178010479E-2</v>
       </c>
       <c r="Q6" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>3.2187082862716911E-2</v>
+        <v>2.0740837696335088E-2</v>
       </c>
       <c r="R6" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>0</v>
+        <v>0.10206675392670161</v>
       </c>
       <c r="S6" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>0.22530958003901835</v>
+        <v>0.12280759162303669</v>
       </c>
       <c r="T6" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>1.0729027620905636E-2</v>
+        <v>1.9467277486910999E-2</v>
       </c>
       <c r="U6" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>2.1458055241811273E-2</v>
+        <v>4.1845549738219901E-3</v>
       </c>
       <c r="V6" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>2.1458055241811273E-2</v>
+        <v>4.1845549738219901E-3</v>
       </c>
       <c r="W6" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>0</v>
+        <v>4.1845549738219901E-3</v>
       </c>
       <c r="X6" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>0</v>
+        <v>1.2735602094240842E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>0</v>
+        <v>6.2950261780104738E-2</v>
       </c>
       <c r="Z6" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F6*$G6</f>
-        <v>0.22530958003901835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.13317801047120423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="4">
-        <v>14.4</v>
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>12.6</v>
       </c>
       <c r="E7" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.147859123113256</v>
+        <f t="shared" si="1"/>
+        <v>8.2460732984293211E-2</v>
       </c>
       <c r="G7" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H7" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>10.299866516069413</v>
+        <v>6.6215968586387453E-2</v>
       </c>
       <c r="I7" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>1.5449799774104118</v>
+        <v>1.1462041884816757E-2</v>
       </c>
       <c r="J7" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>2.0599733032138823</v>
+        <v>1.1709424083769637E-2</v>
       </c>
       <c r="K7" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>3.0899599548208236</v>
+        <v>3.669502617801048E-2</v>
       </c>
       <c r="L7" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>1.0299866516069411</v>
+        <v>7.3390052356020969E-3</v>
       </c>
       <c r="M7" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>2.5749666290173532</v>
+        <v>3.8839005235602103E-2</v>
       </c>
       <c r="N7" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>1.0299866516069411</v>
+        <v>6.07735602094241E-2</v>
       </c>
       <c r="O7" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>3.0899599548208236</v>
+        <v>3.8756544502617806E-3</v>
       </c>
       <c r="P7" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>1.0299866516069411</v>
+        <v>9.1531413612565473E-3</v>
       </c>
       <c r="Q7" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>1.5449799774104118</v>
+        <v>9.4005235602094266E-3</v>
       </c>
       <c r="R7" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>0</v>
+        <v>4.6260471204188497E-2</v>
       </c>
       <c r="S7" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>10.814859841872881</v>
+        <v>5.5660994764397911E-2</v>
       </c>
       <c r="T7" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>0.51499332580347057</v>
+        <v>8.8232984293193737E-3</v>
       </c>
       <c r="U7" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>1.0299866516069411</v>
+        <v>1.8965968586387436E-3</v>
       </c>
       <c r="V7" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>1.0299866516069411</v>
+        <v>1.8965968586387436E-3</v>
       </c>
       <c r="W7" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>0</v>
+        <v>1.8965968586387436E-3</v>
       </c>
       <c r="X7" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>0</v>
+        <v>5.7722513089005249E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>0</v>
+        <v>2.8531413612565452E-2</v>
       </c>
       <c r="Z7" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F7*$G7</f>
-        <v>10.814859841872881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>6.0361256544502626E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4.4000000000000004</v>
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
       </c>
       <c r="E8" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>4.5179176506828227E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.3089005235602099E-3</v>
       </c>
       <c r="G8" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H8" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>3.1471814354656535</v>
+        <v>1.0510471204188486E-3</v>
       </c>
       <c r="I8" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.47207721531984803</v>
+        <v>1.8193717277486916E-4</v>
       </c>
       <c r="J8" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.62943628709313082</v>
+        <v>1.858638743455498E-4</v>
       </c>
       <c r="K8" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.94415443063969606</v>
+        <v>5.8246073298429341E-4</v>
       </c>
       <c r="L8" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.31471814354656541</v>
+        <v>1.164921465968587E-4</v>
       </c>
       <c r="M8" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.78679535886641339</v>
+        <v>6.1649214659685884E-4</v>
       </c>
       <c r="N8" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.31471814354656541</v>
+        <v>9.6465968586387479E-4</v>
       </c>
       <c r="O8" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.94415443063969606</v>
+        <v>6.151832460732987E-5</v>
       </c>
       <c r="P8" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.31471814354656541</v>
+        <v>1.4528795811518332E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.47207721531984803</v>
+        <v>1.4921465968586393E-4</v>
       </c>
       <c r="R8" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0</v>
+        <v>7.3429319371727791E-4</v>
       </c>
       <c r="S8" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>3.3045405072389369</v>
+        <v>8.8350785340314162E-4</v>
       </c>
       <c r="T8" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.1573590717732827</v>
+        <v>1.4005235602094246E-4</v>
       </c>
       <c r="U8" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.31471814354656541</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="V8" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0.31471814354656541</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="W8" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="X8" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0</v>
+        <v>9.1623036649214703E-6</v>
       </c>
       <c r="Y8" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>0</v>
+        <v>4.5287958115183266E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F8*$G8</f>
-        <v>3.3045405072389369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>9.5811518324607353E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.1</v>
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>2.9</v>
       </c>
       <c r="E9" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0267994660642778E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.8979057591623043E-2</v>
       </c>
       <c r="G9" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H9" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>7.1526850806037587E-2</v>
+        <v>1.5240183246073303E-2</v>
       </c>
       <c r="I9" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>1.0729027620905636E-2</v>
+        <v>2.6380890052356029E-3</v>
       </c>
       <c r="J9" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>1.4305370161207516E-2</v>
+        <v>2.6950261780104719E-3</v>
       </c>
       <c r="K9" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>2.1458055241811273E-2</v>
+        <v>8.4456806282722542E-3</v>
       </c>
       <c r="L9" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>7.1526850806037578E-3</v>
+        <v>1.689136125654451E-3</v>
       </c>
       <c r="M9" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>1.7881712701509397E-2</v>
+        <v>8.9391361256544524E-3</v>
       </c>
       <c r="N9" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>7.1526850806037578E-3</v>
+        <v>1.3987565445026181E-2</v>
       </c>
       <c r="O9" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>2.1458055241811273E-2</v>
+        <v>8.9201570680628301E-4</v>
       </c>
       <c r="P9" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>7.1526850806037578E-3</v>
+        <v>2.1066753926701578E-3</v>
       </c>
       <c r="Q9" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>1.0729027620905636E-2</v>
+        <v>2.1636125654450268E-3</v>
       </c>
       <c r="R9" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>0</v>
+        <v>1.0647251308900528E-2</v>
       </c>
       <c r="S9" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>7.5103193346339456E-2</v>
+        <v>1.2810863874345553E-2</v>
       </c>
       <c r="T9" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>3.5763425403018789E-3</v>
+        <v>2.0307591623036653E-3</v>
       </c>
       <c r="U9" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>7.1526850806037578E-3</v>
+        <v>4.3651832460732989E-4</v>
       </c>
       <c r="V9" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>7.1526850806037578E-3</v>
+        <v>4.3651832460732989E-4</v>
       </c>
       <c r="W9" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>0</v>
+        <v>4.3651832460732989E-4</v>
       </c>
       <c r="X9" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>0</v>
+        <v>1.328534031413613E-4</v>
       </c>
       <c r="Y9" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>0</v>
+        <v>6.5667539267015729E-3</v>
       </c>
       <c r="Z9" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F9*$G9</f>
-        <v>7.5103193346339456E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.3892670157068066E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.5</v>
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
       </c>
       <c r="E10" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>5.1339973303213887E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.3089005235602099E-3</v>
       </c>
       <c r="G10" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H10" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>0.35763425403018789</v>
+        <v>1.0510471204188486E-3</v>
       </c>
       <c r="I10" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>5.364513810452818E-2</v>
+        <v>1.8193717277486916E-4</v>
       </c>
       <c r="J10" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>7.1526850806037573E-2</v>
+        <v>1.858638743455498E-4</v>
       </c>
       <c r="K10" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>0.10729027620905636</v>
+        <v>5.8246073298429341E-4</v>
       </c>
       <c r="L10" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>3.5763425403018786E-2</v>
+        <v>1.164921465968587E-4</v>
       </c>
       <c r="M10" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>8.9408563507546973E-2</v>
+        <v>6.1649214659685884E-4</v>
       </c>
       <c r="N10" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>3.5763425403018786E-2</v>
+        <v>9.6465968586387479E-4</v>
       </c>
       <c r="O10" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>0.10729027620905636</v>
+        <v>6.151832460732987E-5</v>
       </c>
       <c r="P10" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>3.5763425403018786E-2</v>
+        <v>1.4528795811518332E-4</v>
       </c>
       <c r="Q10" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>5.364513810452818E-2</v>
+        <v>1.4921465968586393E-4</v>
       </c>
       <c r="R10" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>0</v>
+        <v>7.3429319371727791E-4</v>
       </c>
       <c r="S10" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>0.37551596673169724</v>
+        <v>8.8350785340314162E-4</v>
       </c>
       <c r="T10" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>1.7881712701509393E-2</v>
+        <v>1.4005235602094246E-4</v>
       </c>
       <c r="U10" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>3.5763425403018786E-2</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="V10" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>3.5763425403018786E-2</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="W10" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>0</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="X10" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>0</v>
+        <v>9.1623036649214703E-6</v>
       </c>
       <c r="Y10" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>0</v>
+        <v>4.5287958115183266E-4</v>
       </c>
       <c r="Z10" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F10*$G10</f>
-        <v>0.37551596673169724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>9.5811518324607353E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.1</v>
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>1.3</v>
       </c>
       <c r="E11" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0267994660642778E-3</v>
+        <f t="shared" si="1"/>
+        <v>8.5078534031413633E-3</v>
       </c>
       <c r="G11" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H11" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>7.1526850806037587E-2</v>
+        <v>6.8318062827225148E-3</v>
       </c>
       <c r="I11" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>1.0729027620905636E-2</v>
+        <v>1.1825916230366496E-3</v>
       </c>
       <c r="J11" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>1.4305370161207516E-2</v>
+        <v>1.2081151832460735E-3</v>
       </c>
       <c r="K11" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>2.1458055241811273E-2</v>
+        <v>3.7859947643979065E-3</v>
       </c>
       <c r="L11" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>7.1526850806037578E-3</v>
+        <v>7.571989528795815E-4</v>
       </c>
       <c r="M11" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>1.7881712701509397E-2</v>
+        <v>4.0071989528795825E-3</v>
       </c>
       <c r="N11" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>7.1526850806037578E-3</v>
+        <v>6.2702879581151847E-3</v>
       </c>
       <c r="O11" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>2.1458055241811273E-2</v>
+        <v>3.998691099476441E-4</v>
       </c>
       <c r="P11" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>7.1526850806037578E-3</v>
+        <v>9.4437172774869144E-4</v>
       </c>
       <c r="Q11" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>1.0729027620905636E-2</v>
+        <v>9.6989528795811549E-4</v>
       </c>
       <c r="R11" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>0</v>
+        <v>4.772905759162306E-3</v>
       </c>
       <c r="S11" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>7.5103193346339456E-2</v>
+        <v>5.74280104712042E-3</v>
       </c>
       <c r="T11" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>3.5763425403018789E-3</v>
+        <v>9.103403141361259E-4</v>
       </c>
       <c r="U11" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>7.1526850806037578E-3</v>
+        <v>1.9568062827225131E-4</v>
       </c>
       <c r="V11" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>7.1526850806037578E-3</v>
+        <v>1.9568062827225131E-4</v>
       </c>
       <c r="W11" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>0</v>
+        <v>1.9568062827225131E-4</v>
       </c>
       <c r="X11" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>0</v>
+        <v>5.9554973821989545E-5</v>
       </c>
       <c r="Y11" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>0</v>
+        <v>2.9437172774869117E-3</v>
       </c>
       <c r="Z11" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F11*$G11</f>
-        <v>7.5103193346339456E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>6.2277486910994771E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.1</v>
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
       </c>
       <c r="E12" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0267994660642778E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.2356020942408397E-3</v>
       </c>
       <c r="G12" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H12" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>7.1526850806037587E-2</v>
+        <v>4.2041884816753942E-3</v>
       </c>
       <c r="I12" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>1.0729027620905636E-2</v>
+        <v>7.2774869109947665E-4</v>
       </c>
       <c r="J12" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>1.4305370161207516E-2</v>
+        <v>7.4345549738219919E-4</v>
       </c>
       <c r="K12" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>2.1458055241811273E-2</v>
+        <v>2.3298429319371736E-3</v>
       </c>
       <c r="L12" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>7.1526850806037578E-3</v>
+        <v>4.6596858638743479E-4</v>
       </c>
       <c r="M12" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>1.7881712701509397E-2</v>
+        <v>2.4659685863874354E-3</v>
       </c>
       <c r="N12" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>7.1526850806037578E-3</v>
+        <v>3.8586387434554992E-3</v>
       </c>
       <c r="O12" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>2.1458055241811273E-2</v>
+        <v>2.4607329842931948E-4</v>
       </c>
       <c r="P12" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>7.1526850806037578E-3</v>
+        <v>5.8115183246073329E-4</v>
       </c>
       <c r="Q12" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>1.0729027620905636E-2</v>
+        <v>5.9685863874345572E-4</v>
       </c>
       <c r="R12" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>0</v>
+        <v>2.9371727748691116E-3</v>
       </c>
       <c r="S12" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>7.5103193346339456E-2</v>
+        <v>3.5340314136125665E-3</v>
       </c>
       <c r="T12" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>3.5763425403018789E-3</v>
+        <v>5.6020942408376983E-4</v>
       </c>
       <c r="U12" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>7.1526850806037578E-3</v>
+        <v>1.2041884816753928E-4</v>
       </c>
       <c r="V12" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>7.1526850806037578E-3</v>
+        <v>1.2041884816753928E-4</v>
       </c>
       <c r="W12" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>0</v>
+        <v>1.2041884816753928E-4</v>
       </c>
       <c r="X12" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>0</v>
+        <v>3.6649214659685881E-5</v>
       </c>
       <c r="Y12" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>0</v>
+        <v>1.8115183246073306E-3</v>
       </c>
       <c r="Z12" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F12*$G12</f>
-        <v>7.5103193346339456E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>3.8324607329842941E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="4">
+        <v>35</v>
+      </c>
+      <c r="D13">
         <v>0.1</v>
       </c>
       <c r="E13" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0267994660642778E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.5445026178010497E-4</v>
       </c>
       <c r="G13" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H13" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>7.1526850806037587E-2</v>
+        <v>5.2552356020942428E-4</v>
       </c>
       <c r="I13" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>1.0729027620905636E-2</v>
+        <v>9.0968586387434581E-5</v>
       </c>
       <c r="J13" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>1.4305370161207516E-2</v>
+        <v>9.2931937172774899E-5</v>
       </c>
       <c r="K13" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>2.1458055241811273E-2</v>
+        <v>2.912303664921467E-4</v>
       </c>
       <c r="L13" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>7.1526850806037578E-3</v>
+        <v>5.8246073298429349E-5</v>
       </c>
       <c r="M13" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>1.7881712701509397E-2</v>
+        <v>3.0824607329842942E-4</v>
       </c>
       <c r="N13" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>7.1526850806037578E-3</v>
+        <v>4.8232984293193739E-4</v>
       </c>
       <c r="O13" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>2.1458055241811273E-2</v>
+        <v>3.0759162303664935E-5</v>
       </c>
       <c r="P13" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>7.1526850806037578E-3</v>
+        <v>7.2643979057591661E-5</v>
       </c>
       <c r="Q13" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>1.0729027620905636E-2</v>
+        <v>7.4607329842931965E-5</v>
       </c>
       <c r="R13" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>0</v>
+        <v>3.6714659685863895E-4</v>
       </c>
       <c r="S13" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>7.5103193346339456E-2</v>
+        <v>4.4175392670157081E-4</v>
       </c>
       <c r="T13" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>3.5763425403018789E-3</v>
+        <v>7.0026178010471228E-5</v>
       </c>
       <c r="U13" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>7.1526850806037578E-3</v>
+        <v>1.505235602094241E-5</v>
       </c>
       <c r="V13" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>7.1526850806037578E-3</v>
+        <v>1.505235602094241E-5</v>
       </c>
       <c r="W13" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>0</v>
+        <v>1.505235602094241E-5</v>
       </c>
       <c r="X13" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>0</v>
+        <v>4.5811518324607351E-6</v>
       </c>
       <c r="Y13" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>0</v>
+        <v>2.2643979057591633E-4</v>
       </c>
       <c r="Z13" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F13*$G13</f>
-        <v>7.5103193346339456E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>4.7905759162303677E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
       </c>
       <c r="E14" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9633507853403145E-3</v>
       </c>
       <c r="G14" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H14" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>1.5765706806282725E-3</v>
       </c>
       <c r="I14" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>2.729057591623037E-4</v>
       </c>
       <c r="J14" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>2.7879581151832463E-4</v>
       </c>
       <c r="K14" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>8.7369109947644001E-4</v>
       </c>
       <c r="L14" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>1.7473821989528801E-4</v>
       </c>
       <c r="M14" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>9.2473821989528821E-4</v>
       </c>
       <c r="N14" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>1.4469895287958117E-3</v>
       </c>
       <c r="O14" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>9.2277486910994784E-5</v>
       </c>
       <c r="P14" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>2.1793193717277492E-4</v>
       </c>
       <c r="Q14" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>2.2382198952879587E-4</v>
       </c>
       <c r="R14" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>1.1014397905759164E-3</v>
       </c>
       <c r="S14" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>1.3252617801047121E-3</v>
       </c>
       <c r="T14" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>2.1007853403141364E-4</v>
       </c>
       <c r="U14" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>4.5157068062827226E-5</v>
       </c>
       <c r="V14" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>4.5157068062827226E-5</v>
       </c>
       <c r="W14" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>4.5157068062827226E-5</v>
       </c>
       <c r="X14" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>1.37434554973822E-5</v>
       </c>
       <c r="Y14" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
+        <v>6.793193717277489E-4</v>
       </c>
       <c r="Z14" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F14*$G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.4371727748691101E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.05</v>
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
       </c>
       <c r="E15" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>5.1339973303213889E-4</v>
+        <f t="shared" si="1"/>
+        <v>6.5445026178010497E-4</v>
       </c>
       <c r="G15" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H15" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>3.5763425403018793E-2</v>
+        <v>5.2552356020942428E-4</v>
       </c>
       <c r="I15" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>5.3645138104528181E-3</v>
+        <v>9.0968586387434581E-5</v>
       </c>
       <c r="J15" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>7.1526850806037578E-3</v>
+        <v>9.2931937172774899E-5</v>
       </c>
       <c r="K15" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>1.0729027620905636E-2</v>
+        <v>2.912303664921467E-4</v>
       </c>
       <c r="L15" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>3.5763425403018789E-3</v>
+        <v>5.8246073298429349E-5</v>
       </c>
       <c r="M15" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>8.9408563507546984E-3</v>
+        <v>3.0824607329842942E-4</v>
       </c>
       <c r="N15" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>3.5763425403018789E-3</v>
+        <v>4.8232984293193739E-4</v>
       </c>
       <c r="O15" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>1.0729027620905636E-2</v>
+        <v>3.0759162303664935E-5</v>
       </c>
       <c r="P15" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>3.5763425403018789E-3</v>
+        <v>7.2643979057591661E-5</v>
       </c>
       <c r="Q15" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>5.3645138104528181E-3</v>
+        <v>7.4607329842931965E-5</v>
       </c>
       <c r="R15" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>0</v>
+        <v>3.6714659685863895E-4</v>
       </c>
       <c r="S15" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>3.7551596673169728E-2</v>
+        <v>4.4175392670157081E-4</v>
       </c>
       <c r="T15" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>1.7881712701509395E-3</v>
+        <v>7.0026178010471228E-5</v>
       </c>
       <c r="U15" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>3.5763425403018789E-3</v>
+        <v>1.505235602094241E-5</v>
       </c>
       <c r="V15" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>3.5763425403018789E-3</v>
+        <v>1.505235602094241E-5</v>
       </c>
       <c r="W15" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>0</v>
+        <v>1.505235602094241E-5</v>
       </c>
       <c r="X15" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>0</v>
+        <v>4.5811518324607351E-6</v>
       </c>
       <c r="Y15" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>0</v>
+        <v>2.2643979057591633E-4</v>
       </c>
       <c r="Z15" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F15*$G15</f>
-        <v>3.7551596673169728E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>4.7905759162303677E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.02</v>
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>0.3</v>
       </c>
       <c r="E16" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0535989321285555E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.9633507853403145E-3</v>
       </c>
       <c r="G16" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H16" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>1.4305370161207517E-2</v>
+        <v>1.5765706806282725E-3</v>
       </c>
       <c r="I16" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>2.1458055241811271E-3</v>
+        <v>2.729057591623037E-4</v>
       </c>
       <c r="J16" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>2.8610740322415032E-3</v>
+        <v>2.7879581151832463E-4</v>
       </c>
       <c r="K16" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>4.2916110483622542E-3</v>
+        <v>8.7369109947644001E-4</v>
       </c>
       <c r="L16" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>1.4305370161207516E-3</v>
+        <v>1.7473821989528801E-4</v>
       </c>
       <c r="M16" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>3.5763425403018793E-3</v>
+        <v>9.2473821989528821E-4</v>
       </c>
       <c r="N16" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>1.4305370161207516E-3</v>
+        <v>1.4469895287958117E-3</v>
       </c>
       <c r="O16" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>4.2916110483622542E-3</v>
+        <v>9.2277486910994784E-5</v>
       </c>
       <c r="P16" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>1.4305370161207516E-3</v>
+        <v>2.1793193717277492E-4</v>
       </c>
       <c r="Q16" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>2.1458055241811271E-3</v>
+        <v>2.2382198952879587E-4</v>
       </c>
       <c r="R16" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>0</v>
+        <v>1.1014397905759164E-3</v>
       </c>
       <c r="S16" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>1.5020638669267892E-2</v>
+        <v>1.3252617801047121E-3</v>
       </c>
       <c r="T16" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>7.152685080603758E-4</v>
+        <v>2.1007853403141364E-4</v>
       </c>
       <c r="U16" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>1.4305370161207516E-3</v>
+        <v>4.5157068062827226E-5</v>
       </c>
       <c r="V16" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>1.4305370161207516E-3</v>
+        <v>4.5157068062827226E-5</v>
       </c>
       <c r="W16" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>0</v>
+        <v>4.5157068062827226E-5</v>
       </c>
       <c r="X16" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>0</v>
+        <v>1.37434554973822E-5</v>
       </c>
       <c r="Y16" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>0</v>
+        <v>6.793193717277489E-4</v>
       </c>
       <c r="Z16" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F16*$G16</f>
-        <v>1.5020638669267892E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.4371727748691101E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
       </c>
       <c r="E17" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1875962624499447E-4</v>
+        <f t="shared" si="1"/>
+        <v>6.5445026178010497E-4</v>
       </c>
       <c r="G17" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H17" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>5.0068795564226311E-2</v>
+        <v>5.2552356020942428E-4</v>
       </c>
       <c r="I17" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>7.5103193346339461E-3</v>
+        <v>9.0968586387434581E-5</v>
       </c>
       <c r="J17" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>1.0013759112845261E-2</v>
+        <v>9.2931937172774899E-5</v>
       </c>
       <c r="K17" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>1.5020638669267892E-2</v>
+        <v>2.912303664921467E-4</v>
       </c>
       <c r="L17" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>5.0068795564226307E-3</v>
+        <v>5.8246073298429349E-5</v>
       </c>
       <c r="M17" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>1.2517198891056578E-2</v>
+        <v>3.0824607329842942E-4</v>
       </c>
       <c r="N17" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>5.0068795564226307E-3</v>
+        <v>4.8232984293193739E-4</v>
       </c>
       <c r="O17" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>1.5020638669267892E-2</v>
+        <v>3.0759162303664935E-5</v>
       </c>
       <c r="P17" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>5.0068795564226307E-3</v>
+        <v>7.2643979057591661E-5</v>
       </c>
       <c r="Q17" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>7.5103193346339461E-3</v>
+        <v>7.4607329842931965E-5</v>
       </c>
       <c r="R17" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>0</v>
+        <v>3.6714659685863895E-4</v>
       </c>
       <c r="S17" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>5.2572235342437622E-2</v>
+        <v>4.4175392670157081E-4</v>
       </c>
       <c r="T17" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>2.5034397782113154E-3</v>
+        <v>7.0026178010471228E-5</v>
       </c>
       <c r="U17" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>5.0068795564226307E-3</v>
+        <v>1.505235602094241E-5</v>
       </c>
       <c r="V17" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>5.0068795564226307E-3</v>
+        <v>1.505235602094241E-5</v>
       </c>
       <c r="W17" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>0</v>
+        <v>1.505235602094241E-5</v>
       </c>
       <c r="X17" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>0</v>
+        <v>4.5811518324607351E-6</v>
       </c>
       <c r="Y17" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>0</v>
+        <v>2.2643979057591633E-4</v>
       </c>
       <c r="Z17" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F17*$G17</f>
-        <v>5.2572235342437622E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>4.7905759162303677E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.02</v>
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0535989321285555E-4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H18" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>1.4305370161207517E-2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>2.1458055241811271E-3</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>2.8610740322415032E-3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>4.2916110483622542E-3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>1.4305370161207516E-3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>3.5763425403018793E-3</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>1.4305370161207516E-3</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>4.2916110483622542E-3</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>1.4305370161207516E-3</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>2.1458055241811271E-3</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
@@ -2634,19 +2561,19 @@
       </c>
       <c r="S18" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>1.5020638669267892E-2</v>
+        <v>0</v>
       </c>
       <c r="T18" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>7.152685080603758E-4</v>
+        <v>0</v>
       </c>
       <c r="U18" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>1.4305370161207516E-3</v>
+        <v>0</v>
       </c>
       <c r="V18" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>1.4305370161207516E-3</v>
+        <v>0</v>
       </c>
       <c r="W18" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
@@ -2662,175 +2589,175 @@
       </c>
       <c r="Z18" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F18*$G18</f>
-        <v>1.5020638669267892E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.01</v>
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
       </c>
       <c r="E19" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0267994660642778E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.3089005235602099E-3</v>
       </c>
       <c r="G19" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H19" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>7.1526850806037587E-3</v>
+        <v>1.0510471204188486E-3</v>
       </c>
       <c r="I19" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>1.0729027620905635E-3</v>
+        <v>1.8193717277486916E-4</v>
       </c>
       <c r="J19" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>1.4305370161207516E-3</v>
+        <v>1.858638743455498E-4</v>
       </c>
       <c r="K19" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>2.1458055241811271E-3</v>
+        <v>5.8246073298429341E-4</v>
       </c>
       <c r="L19" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>7.152685080603758E-4</v>
+        <v>1.164921465968587E-4</v>
       </c>
       <c r="M19" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>1.7881712701509397E-3</v>
+        <v>6.1649214659685884E-4</v>
       </c>
       <c r="N19" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>7.152685080603758E-4</v>
+        <v>9.6465968586387479E-4</v>
       </c>
       <c r="O19" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>2.1458055241811271E-3</v>
+        <v>6.151832460732987E-5</v>
       </c>
       <c r="P19" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>7.152685080603758E-4</v>
+        <v>1.4528795811518332E-4</v>
       </c>
       <c r="Q19" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>1.0729027620905635E-3</v>
+        <v>1.4921465968586393E-4</v>
       </c>
       <c r="R19" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>0</v>
+        <v>7.3429319371727791E-4</v>
       </c>
       <c r="S19" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>7.5103193346339461E-3</v>
+        <v>8.8350785340314162E-4</v>
       </c>
       <c r="T19" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>3.576342540301879E-4</v>
+        <v>1.4005235602094246E-4</v>
       </c>
       <c r="U19" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>7.152685080603758E-4</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="V19" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>7.152685080603758E-4</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="W19" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>0</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="X19" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>0</v>
+        <v>9.1623036649214703E-6</v>
       </c>
       <c r="Y19" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>0</v>
+        <v>4.5287958115183266E-4</v>
       </c>
       <c r="Z19" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F19*$G19</f>
-        <v>7.5103193346339461E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>9.5811518324607353E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.02</v>
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0535989321285555E-4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H20" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>1.4305370161207517E-2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>2.1458055241811271E-3</v>
+        <v>0</v>
       </c>
       <c r="J20" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>2.8610740322415032E-3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>4.2916110483622542E-3</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>1.4305370161207516E-3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>3.5763425403018793E-3</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>1.4305370161207516E-3</v>
+        <v>0</v>
       </c>
       <c r="O20" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>4.2916110483622542E-3</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>1.4305370161207516E-3</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>2.1458055241811271E-3</v>
+        <v>0</v>
       </c>
       <c r="R20" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
@@ -2838,19 +2765,19 @@
       </c>
       <c r="S20" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>1.5020638669267892E-2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>7.152685080603758E-4</v>
+        <v>0</v>
       </c>
       <c r="U20" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>1.4305370161207516E-3</v>
+        <v>0</v>
       </c>
       <c r="V20" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>1.4305370161207516E-3</v>
+        <v>0</v>
       </c>
       <c r="W20" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
@@ -2866,721 +2793,721 @@
       </c>
       <c r="Z20" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F20*$G20</f>
-        <v>1.5020638669267892E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>0.2</v>
       </c>
       <c r="E21" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.3089005235602099E-3</v>
       </c>
       <c r="G21" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H21" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>1.0510471204188486E-3</v>
       </c>
       <c r="I21" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>1.8193717277486916E-4</v>
       </c>
       <c r="J21" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>1.858638743455498E-4</v>
       </c>
       <c r="K21" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>5.8246073298429341E-4</v>
       </c>
       <c r="L21" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>1.164921465968587E-4</v>
       </c>
       <c r="M21" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>6.1649214659685884E-4</v>
       </c>
       <c r="N21" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>9.6465968586387479E-4</v>
       </c>
       <c r="O21" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>6.151832460732987E-5</v>
       </c>
       <c r="P21" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>1.4528795811518332E-4</v>
       </c>
       <c r="Q21" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>1.4921465968586393E-4</v>
       </c>
       <c r="R21" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>7.3429319371727791E-4</v>
       </c>
       <c r="S21" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>8.8350785340314162E-4</v>
       </c>
       <c r="T21" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>1.4005235602094246E-4</v>
       </c>
       <c r="U21" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="V21" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="W21" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>3.010471204188482E-5</v>
       </c>
       <c r="X21" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>9.1623036649214703E-6</v>
       </c>
       <c r="Y21" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
+        <v>4.5287958115183266E-4</v>
       </c>
       <c r="Z21" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F21*$G21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>9.5811518324607353E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.1000000000000001</v>
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <v>2.2000000000000002</v>
       </c>
       <c r="E22" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1294794126707057E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4397905759162308E-2</v>
       </c>
       <c r="G22" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H22" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0.78679535886641339</v>
+        <v>1.1561518324607334E-2</v>
       </c>
       <c r="I22" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0.11801930382996201</v>
+        <v>2.0013089005235609E-3</v>
       </c>
       <c r="J22" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0.1573590717732827</v>
+        <v>2.0445026178010479E-3</v>
       </c>
       <c r="K22" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0.23603860765992402</v>
+        <v>6.4070680628272271E-3</v>
       </c>
       <c r="L22" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>7.8679535886641352E-2</v>
+        <v>1.2814136125654458E-3</v>
       </c>
       <c r="M22" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0.19669883971660335</v>
+        <v>6.781413612565448E-3</v>
       </c>
       <c r="N22" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>7.8679535886641352E-2</v>
+        <v>1.0611256544502621E-2</v>
       </c>
       <c r="O22" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0.23603860765992402</v>
+        <v>6.7670157068062855E-4</v>
       </c>
       <c r="P22" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>7.8679535886641352E-2</v>
+        <v>1.5981675392670162E-3</v>
       </c>
       <c r="Q22" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0.11801930382996201</v>
+        <v>1.6413612565445031E-3</v>
       </c>
       <c r="R22" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0</v>
+        <v>8.0772251308900561E-3</v>
       </c>
       <c r="S22" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0.82613512680973422</v>
+        <v>9.7185863874345562E-3</v>
       </c>
       <c r="T22" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>3.9339767943320676E-2</v>
+        <v>1.5405759162303667E-3</v>
       </c>
       <c r="U22" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>7.8679535886641352E-2</v>
+        <v>3.3115183246073307E-4</v>
       </c>
       <c r="V22" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>7.8679535886641352E-2</v>
+        <v>3.3115183246073307E-4</v>
       </c>
       <c r="W22" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0</v>
+        <v>3.3115183246073307E-4</v>
       </c>
       <c r="X22" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0</v>
+        <v>1.0078534031413616E-4</v>
       </c>
       <c r="Y22" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0</v>
+        <v>4.9816753926701582E-3</v>
       </c>
       <c r="Z22" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F22*$G22</f>
-        <v>0.82613512680973422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.0539267015706809E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.8</v>
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E23" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>8.2143957285142222E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.1989528795811542E-3</v>
       </c>
       <c r="G23" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H23" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0.57221480644830069</v>
+        <v>5.7807591623036669E-3</v>
       </c>
       <c r="I23" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>8.583222096724509E-2</v>
+        <v>1.0006544502617805E-3</v>
       </c>
       <c r="J23" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0.11444296128966013</v>
+        <v>1.0222513089005239E-3</v>
       </c>
       <c r="K23" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0.17166444193449018</v>
+        <v>3.2035340314136135E-3</v>
       </c>
       <c r="L23" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>5.7221480644830063E-2</v>
+        <v>6.4070680628272288E-4</v>
       </c>
       <c r="M23" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0.14305370161207517</v>
+        <v>3.390706806282724E-3</v>
       </c>
       <c r="N23" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>5.7221480644830063E-2</v>
+        <v>5.3056282722513106E-3</v>
       </c>
       <c r="O23" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0.17166444193449018</v>
+        <v>3.3835078534031428E-4</v>
       </c>
       <c r="P23" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>5.7221480644830063E-2</v>
+        <v>7.9908376963350809E-4</v>
       </c>
       <c r="Q23" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>8.583222096724509E-2</v>
+        <v>8.2068062827225156E-4</v>
       </c>
       <c r="R23" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0</v>
+        <v>4.0386125654450281E-3</v>
       </c>
       <c r="S23" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0.60082554677071565</v>
+        <v>4.8592931937172781E-3</v>
       </c>
       <c r="T23" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>2.8610740322415031E-2</v>
+        <v>7.7028795811518336E-4</v>
       </c>
       <c r="U23" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>5.7221480644830063E-2</v>
+        <v>1.6557591623036653E-4</v>
       </c>
       <c r="V23" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>5.7221480644830063E-2</v>
+        <v>1.6557591623036653E-4</v>
       </c>
       <c r="W23" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0</v>
+        <v>1.6557591623036653E-4</v>
       </c>
       <c r="X23" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0</v>
+        <v>5.0392670157068078E-5</v>
       </c>
       <c r="Y23" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0</v>
+        <v>2.4908376963350791E-3</v>
       </c>
       <c r="Z23" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F23*$G23</f>
-        <v>0.60082554677071565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>5.2696335078534044E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="4">
+        <v>48</v>
+      </c>
+      <c r="D24">
         <v>11.2</v>
       </c>
       <c r="E24" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1150015401991991</v>
+        <f t="shared" si="1"/>
+        <v>7.329842931937175E-2</v>
       </c>
       <c r="G24" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H24" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>8.0110072902762095</v>
+        <v>5.8858638743455517E-2</v>
       </c>
       <c r="I24" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>1.2016510935414313</v>
+        <v>1.0188481675392672E-2</v>
       </c>
       <c r="J24" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>1.6022014580552417</v>
+        <v>1.0408376963350788E-2</v>
       </c>
       <c r="K24" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>2.4033021870828626</v>
+        <v>3.2617801047120427E-2</v>
       </c>
       <c r="L24" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>0.80110072902762086</v>
+        <v>6.5235602094240869E-3</v>
       </c>
       <c r="M24" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>2.0027518225690524</v>
+        <v>3.4523560209424098E-2</v>
       </c>
       <c r="N24" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>0.80110072902762086</v>
+        <v>5.402094240837698E-2</v>
       </c>
       <c r="O24" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>2.4033021870828626</v>
+        <v>3.4450261780104722E-3</v>
       </c>
       <c r="P24" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>0.80110072902762086</v>
+        <v>8.1361256544502641E-3</v>
       </c>
       <c r="Q24" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>1.2016510935414313</v>
+        <v>8.3560209424083792E-3</v>
       </c>
       <c r="R24" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>0</v>
+        <v>4.1120418848167556E-2</v>
       </c>
       <c r="S24" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>8.4115576547900197</v>
+        <v>4.9476439790575928E-2</v>
       </c>
       <c r="T24" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>0.40055036451381043</v>
+        <v>7.842931937172776E-3</v>
       </c>
       <c r="U24" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>0.80110072902762086</v>
+        <v>1.6858638743455499E-3</v>
       </c>
       <c r="V24" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>0.80110072902762086</v>
+        <v>1.6858638743455499E-3</v>
       </c>
       <c r="W24" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>0</v>
+        <v>1.6858638743455499E-3</v>
       </c>
       <c r="X24" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>0</v>
+        <v>5.130890052356022E-4</v>
       </c>
       <c r="Y24" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>0</v>
+        <v>2.5361256544502626E-2</v>
       </c>
       <c r="Z24" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F24*$G24</f>
-        <v>8.4115576547900197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>5.3654450261780118E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2.9</v>
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
       </c>
       <c r="E25" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9777184515864055E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9633507853403148E-2</v>
       </c>
       <c r="G25" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H25" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>2.07427867337509</v>
+        <v>1.5765706806282729E-2</v>
       </c>
       <c r="I25" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.31114180100626349</v>
+        <v>2.7290575916230375E-3</v>
       </c>
       <c r="J25" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.41485573467501796</v>
+        <v>2.7879581151832472E-3</v>
       </c>
       <c r="K25" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.62228360201252697</v>
+        <v>8.7369109947644016E-3</v>
       </c>
       <c r="L25" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.20742786733750898</v>
+        <v>1.7473821989528804E-3</v>
       </c>
       <c r="M25" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.51856966834377249</v>
+        <v>9.2473821989528839E-3</v>
       </c>
       <c r="N25" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.20742786733750898</v>
+        <v>1.4469895287958121E-2</v>
       </c>
       <c r="O25" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.62228360201252697</v>
+        <v>9.2277486910994787E-4</v>
       </c>
       <c r="P25" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.20742786733750898</v>
+        <v>2.1793193717277496E-3</v>
       </c>
       <c r="Q25" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.31114180100626349</v>
+        <v>2.2382198952879588E-3</v>
       </c>
       <c r="R25" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0</v>
+        <v>1.1014397905759168E-2</v>
       </c>
       <c r="S25" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>2.1779926070438442</v>
+        <v>1.3252617801047124E-2</v>
       </c>
       <c r="T25" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.10371393366875449</v>
+        <v>2.1007853403141367E-3</v>
       </c>
       <c r="U25" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.20742786733750898</v>
+        <v>4.5157068062827232E-4</v>
       </c>
       <c r="V25" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0.20742786733750898</v>
+        <v>4.5157068062827232E-4</v>
       </c>
       <c r="W25" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0</v>
+        <v>4.5157068062827232E-4</v>
       </c>
       <c r="X25" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0</v>
+        <v>1.3743455497382205E-4</v>
       </c>
       <c r="Y25" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>0</v>
+        <v>6.7931937172774895E-3</v>
       </c>
       <c r="Z25" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F25*$G25</f>
-        <v>2.1779926070438442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.4371727748691103E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6.4</v>
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>5.5</v>
       </c>
       <c r="E26" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>6.5715165828113778E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.5994764397905769E-2</v>
       </c>
       <c r="G26" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H26" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>4.5777184515864056</v>
+        <v>2.8903795811518335E-2</v>
       </c>
       <c r="I26" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0.68665776773796072</v>
+        <v>5.0032722513089021E-3</v>
       </c>
       <c r="J26" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0.915543690317281</v>
+        <v>5.111256544502619E-3</v>
       </c>
       <c r="K26" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>1.3733155354759214</v>
+        <v>1.6017670157068068E-2</v>
       </c>
       <c r="L26" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0.4577718451586405</v>
+        <v>3.203534031413614E-3</v>
       </c>
       <c r="M26" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>1.1444296128966014</v>
+        <v>1.6953534031413618E-2</v>
       </c>
       <c r="N26" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0.4577718451586405</v>
+        <v>2.6528141361256551E-2</v>
       </c>
       <c r="O26" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>1.3733155354759214</v>
+        <v>1.6917539267015712E-3</v>
       </c>
       <c r="P26" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0.4577718451586405</v>
+        <v>3.9954188481675403E-3</v>
       </c>
       <c r="Q26" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0.68665776773796072</v>
+        <v>4.103403141361258E-3</v>
       </c>
       <c r="R26" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0</v>
+        <v>2.019306282722514E-2</v>
       </c>
       <c r="S26" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>4.8066043741657252</v>
+        <v>2.4296465968586391E-2</v>
       </c>
       <c r="T26" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0.22888592257932025</v>
+        <v>3.8514397905759171E-3</v>
       </c>
       <c r="U26" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0.4577718451586405</v>
+        <v>8.278795811518325E-4</v>
       </c>
       <c r="V26" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0.4577718451586405</v>
+        <v>8.278795811518325E-4</v>
       </c>
       <c r="W26" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0</v>
+        <v>8.278795811518325E-4</v>
       </c>
       <c r="X26" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0</v>
+        <v>2.5196335078534035E-4</v>
       </c>
       <c r="Y26" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>0</v>
+        <v>1.2454188481675397E-2</v>
       </c>
       <c r="Z26" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F26*$G26</f>
-        <v>4.8066043741657252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <v>2.6348167539267022E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2.2000000000000002</v>
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>7.1</v>
       </c>
       <c r="E27" s="4">
-        <f>+SUM(D:D)</f>
-        <v>97.389999999999986</v>
+        <f t="shared" si="0"/>
+        <v>152.79999999999995</v>
       </c>
       <c r="F27" s="4">
         <f>+D27/E27</f>
-        <v>2.2589588253414113E-2</v>
+        <v>4.6465968586387449E-2</v>
       </c>
       <c r="G27" s="4">
         <f>+SUM(Table037__Page_17[Needs])</f>
-        <v>348.29999999999995</v>
+        <v>559.50000000000011</v>
       </c>
       <c r="H27" s="4">
         <f>+(VLOOKUP(H$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>1.5735907177328268</v>
+        <v>3.7312172774869125E-2</v>
       </c>
       <c r="I27" s="4">
         <f>+(VLOOKUP(I$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.23603860765992402</v>
+        <v>6.458769633507856E-3</v>
       </c>
       <c r="J27" s="4">
         <f>+(VLOOKUP(J$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.31471814354656541</v>
+        <v>6.5981675392670176E-3</v>
       </c>
       <c r="K27" s="4">
         <f>+(VLOOKUP(K$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.47207721531984803</v>
+        <v>2.0677356020942415E-2</v>
       </c>
       <c r="L27" s="4">
         <f>+(VLOOKUP(L$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.1573590717732827</v>
+        <v>4.1354712041884838E-3</v>
       </c>
       <c r="M27" s="4">
         <f>+(VLOOKUP(M$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.39339767943320669</v>
+        <v>2.1885471204188489E-2</v>
       </c>
       <c r="N27" s="4">
         <f>+(VLOOKUP(N$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.1573590717732827</v>
+        <v>3.424541884816755E-2</v>
       </c>
       <c r="O27" s="4">
         <f>+(VLOOKUP(O$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.47207721531984803</v>
+        <v>2.1839005235602103E-3</v>
       </c>
       <c r="P27" s="4">
         <f>+(VLOOKUP(P$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.1573590717732827</v>
+        <v>5.1577225130890062E-3</v>
       </c>
       <c r="Q27" s="4">
         <f>+(VLOOKUP(Q$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.23603860765992402</v>
+        <v>5.2971204188481695E-3</v>
       </c>
       <c r="R27" s="4">
         <f>+(VLOOKUP(R$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0</v>
+        <v>2.6067408376963364E-2</v>
       </c>
       <c r="S27" s="4">
         <f>+(VLOOKUP(S$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>1.6522702536194684</v>
+        <v>3.1364528795811523E-2</v>
       </c>
       <c r="T27" s="4">
         <f>+(VLOOKUP(T$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>7.8679535886641352E-2</v>
+        <v>4.9718586387434566E-3</v>
       </c>
       <c r="U27" s="4">
         <f>+(VLOOKUP(U$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.1573590717732827</v>
+        <v>1.0687172774869109E-3</v>
       </c>
       <c r="V27" s="4">
         <f>+(VLOOKUP(V$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0.1573590717732827</v>
+        <v>1.0687172774869109E-3</v>
       </c>
       <c r="W27" s="4">
         <f>+(VLOOKUP(W$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0</v>
+        <v>1.0687172774869109E-3</v>
       </c>
       <c r="X27" s="4">
         <f>+(VLOOKUP(X$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0</v>
+        <v>3.2526178010471214E-4</v>
       </c>
       <c r="Y27" s="4">
         <f>+(VLOOKUP(Y$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>0</v>
+        <v>1.6077225130890056E-2</v>
       </c>
       <c r="Z27" s="4">
         <f>+(VLOOKUP(Z$1,sect_damage!$A:$H,8,0)/100)*$F27*$G27</f>
-        <v>1.6522702536194684</v>
+        <v>3.4013089005235607E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3593,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8C46AC-45F8-4A5F-BA92-ECE3B1266D73}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3613,25 +3540,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3639,490 +3566,544 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>69</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>55.9</v>
+      </c>
+      <c r="D2" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>0.36679790026246717</v>
+      </c>
+      <c r="E2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F2" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>3.631051752921536E-2</v>
+      </c>
+      <c r="G2">
+        <v>80.3</v>
+      </c>
+      <c r="H2" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>0.14352100089365502</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>5.6</v>
+      </c>
+      <c r="D3" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>3.6745406824146981E-2</v>
+      </c>
+      <c r="E3">
+        <v>6.9</v>
+      </c>
+      <c r="F3" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>1.439899833055092E-2</v>
+      </c>
+      <c r="G3">
+        <v>13.9</v>
+      </c>
+      <c r="H3" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>2.4843610366398566E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>1.4</v>
+      </c>
+      <c r="D4" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>9.1863517060367453E-3</v>
+      </c>
+      <c r="E4">
+        <v>17.8</v>
+      </c>
+      <c r="F4" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>3.7145242070116866E-2</v>
+      </c>
+      <c r="G4">
+        <v>14.2</v>
+      </c>
+      <c r="H4" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>2.5379803395889182E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>1.3123359580052493E-3</v>
       </c>
       <c r="E5">
-        <v>4.5</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>20.6</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
+        <v>9.4</v>
+      </c>
+      <c r="F5" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>1.961602671118531E-2</v>
+      </c>
+      <c r="G5">
+        <v>44.5</v>
+      </c>
+      <c r="H5" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>7.9535299374441454E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>2.2965879265091863E-2</v>
+      </c>
+      <c r="E6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>4.0901502504173626E-2</v>
+      </c>
+      <c r="G6">
+        <v>8.9</v>
+      </c>
+      <c r="H6" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>1.5907059874888291E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>10.6</v>
+      </c>
+      <c r="D7" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>6.9553805774278207E-2</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>0.11268781302170285</v>
+      </c>
+      <c r="G7">
+        <v>47.1</v>
+      </c>
+      <c r="H7" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>8.4182305630026794E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>33.6</v>
+      </c>
+      <c r="D8" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>0.22047244094488189</v>
+      </c>
+      <c r="E8">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F8" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>8.4933222036727887E-2</v>
+      </c>
+      <c r="G8">
+        <v>73.7</v>
+      </c>
+      <c r="H8" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>0.13172475424486146</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3">
-        <v>20.8</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>2.1</v>
+      </c>
+      <c r="D9" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>1.3779527559055118E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>4.7996661101836393E-3</v>
+      </c>
+      <c r="G9">
+        <v>4.7</v>
+      </c>
+      <c r="H9" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>8.4003574620196593E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>2.6246719160104987E-2</v>
+      </c>
+      <c r="E10">
+        <v>11.6</v>
+      </c>
+      <c r="F10" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>2.4207011686143573E-2</v>
+      </c>
+      <c r="G10">
+        <v>11.1</v>
+      </c>
+      <c r="H10" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>1.9839142091152812E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D11" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>3.2152230971128612E-2</v>
+      </c>
+      <c r="E11">
+        <v>6.8</v>
+      </c>
+      <c r="F11" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>1.4190317195325543E-2</v>
+      </c>
+      <c r="G11">
+        <v>11.4</v>
+      </c>
+      <c r="H11" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>2.0375335120643427E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>10.3</v>
+      </c>
+      <c r="D12" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>6.7585301837270337E-2</v>
+      </c>
+      <c r="E12">
+        <v>69.8</v>
+      </c>
+      <c r="F12" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>0.14565943238731219</v>
+      </c>
+      <c r="G12">
+        <v>56.1</v>
+      </c>
+      <c r="H12" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>0.10026809651474529</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3">
-        <v>73.8</v>
-      </c>
-      <c r="H13">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>15.6</v>
+      </c>
+      <c r="D13" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>0.10236220472440945</v>
+      </c>
+      <c r="E13">
+        <v>173.2</v>
+      </c>
+      <c r="F13" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>0.36143572621035058</v>
+      </c>
+      <c r="G13">
+        <v>67.5</v>
+      </c>
+      <c r="H13" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>0.12064343163538871</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>4.5931758530183726E-3</v>
+      </c>
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>1.4607679465776294E-3</v>
+      </c>
+      <c r="G14">
+        <v>10.7</v>
+      </c>
+      <c r="H14" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>1.9124218051831988E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5.7</v>
+      </c>
+      <c r="F15" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>1.1894824707846412E-2</v>
+      </c>
+      <c r="G15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H15" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>4.1108132260947259E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>3.3</v>
+      </c>
+      <c r="D16" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>2.1653543307086614E-2</v>
+      </c>
+      <c r="E16">
+        <v>6.5</v>
+      </c>
+      <c r="F16" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>1.3564273789649415E-2</v>
+      </c>
+      <c r="G16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H16" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>4.1108132260947259E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>2.6246719160104987E-3</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>1.0434056761268781E-3</v>
+      </c>
+      <c r="G17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H17" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>4.1108132260947259E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+        <v>61</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>1.968503937007874E-3</v>
+      </c>
+      <c r="E18">
+        <v>1.7</v>
+      </c>
+      <c r="F18" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>3.5475792988313858E-3</v>
+      </c>
+      <c r="G18">
         <v>0.7</v>
       </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="H18" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>1.2511170688114385E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="D19" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>34.6</v>
+      </c>
+      <c r="F19" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>7.2203672787979969E-2</v>
+      </c>
+      <c r="G19">
+        <v>34.6</v>
+      </c>
+      <c r="H19" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>6.1840929401251105E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5">
+        <f>+Table037__Page_17[[#This Row],[Damage]]/SUM(C:C)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="F20" s="5">
+        <f>+Table037__Page_17[[#This Row],[Losses]]/SUM(E:E)</f>
+        <v>0.15275459098497496</v>
       </c>
       <c r="G20" s="3">
         <v>73.2</v>
       </c>
-      <c r="H20">
-        <v>21</v>
+      <c r="H20" s="5">
+        <f>+Table037__Page_17[[#This Row],[Needs]]/SUM(G:G)</f>
+        <v>0.13083109919571043</v>
       </c>
     </row>
   </sheetData>
@@ -4137,7 +4118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE00B24-DCA0-4D72-ABCE-BA592A3C36D7}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:D30"/>
     </sheetView>
   </sheetViews>
@@ -4149,24 +4130,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>26.2</v>
@@ -4178,10 +4159,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4193,10 +4174,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>16.7</v>
@@ -4208,10 +4189,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>3.7</v>
@@ -4223,10 +4204,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>0.3</v>
@@ -4238,10 +4219,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>14.4</v>
@@ -4253,10 +4234,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>4.4000000000000004</v>
@@ -4268,10 +4249,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>0.9</v>
@@ -4283,10 +4264,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -4298,10 +4279,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -4313,10 +4294,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>0.1</v>
@@ -4328,10 +4309,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>0.1</v>
@@ -4343,10 +4324,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>0.1</v>
@@ -4358,10 +4339,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>0.2</v>
@@ -4373,10 +4354,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4388,10 +4369,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>0.05</v>
@@ -4403,10 +4384,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>0.02</v>
@@ -4418,10 +4399,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>7.0000000000000007E-2</v>
@@ -4433,10 +4414,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>0.02</v>
@@ -4448,10 +4429,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>0.01</v>
@@ -4463,10 +4444,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>0.02</v>
@@ -4478,10 +4459,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4493,10 +4474,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>22.4</v>
@@ -4508,10 +4489,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C25">
         <v>1.1000000000000001</v>
@@ -4523,10 +4504,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>0.8</v>
@@ -4538,10 +4519,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>11.2</v>
@@ -4553,10 +4534,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>2.9</v>
@@ -4568,10 +4549,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>6.4</v>
@@ -4583,10 +4564,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C30">
         <v>2.2000000000000002</v>
